--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Selplg-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Selplg-Sele.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>88.31721</v>
+        <v>0.158418</v>
       </c>
       <c r="H2">
-        <v>264.95163</v>
+        <v>0.475254</v>
       </c>
       <c r="I2">
-        <v>0.9709320988649861</v>
+        <v>0.05652797120826585</v>
       </c>
       <c r="J2">
-        <v>0.970932098864986</v>
+        <v>0.05652797120826585</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.879565666666667</v>
+        <v>0.4890553333333333</v>
       </c>
       <c r="N2">
-        <v>23.638697</v>
+        <v>1.467166</v>
       </c>
       <c r="O2">
-        <v>0.9977172793687663</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="P2">
-        <v>0.9977172793687664</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="Q2">
-        <v>695.9012556917901</v>
+        <v>0.07747516779599999</v>
       </c>
       <c r="R2">
-        <v>6263.11130122611</v>
+        <v>0.6972765101639999</v>
       </c>
       <c r="S2">
-        <v>0.96871573213138</v>
+        <v>0.05451826945324343</v>
       </c>
       <c r="T2">
-        <v>0.96871573213138</v>
+        <v>0.05451826945324343</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>88.31721</v>
+        <v>0.158418</v>
       </c>
       <c r="H3">
-        <v>264.95163</v>
+        <v>0.475254</v>
       </c>
       <c r="I3">
-        <v>0.9709320988649861</v>
+        <v>0.05652797120826585</v>
       </c>
       <c r="J3">
-        <v>0.970932098864986</v>
+        <v>0.05652797120826585</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.054084</v>
       </c>
       <c r="O3">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="P3">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="Q3">
-        <v>1.59218266188</v>
+        <v>0.002855959703999999</v>
       </c>
       <c r="R3">
-        <v>14.32964395692</v>
+        <v>0.025703637336</v>
       </c>
       <c r="S3">
-        <v>0.002216366733606068</v>
+        <v>0.002009701755022416</v>
       </c>
       <c r="T3">
-        <v>0.002216366733606068</v>
+        <v>0.002009701755022416</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>6.413473</v>
       </c>
       <c r="I4">
-        <v>0.02350257970069449</v>
+        <v>0.7628354881578912</v>
       </c>
       <c r="J4">
-        <v>0.02350257970069449</v>
+        <v>0.7628354881578912</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.879565666666667</v>
+        <v>0.4890553333333333</v>
       </c>
       <c r="N4">
-        <v>23.638697</v>
+        <v>1.467166</v>
       </c>
       <c r="O4">
-        <v>0.9977172793687663</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="P4">
-        <v>0.9977172793687664</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="Q4">
-        <v>16.84512721829789</v>
+        <v>1.045514391946444</v>
       </c>
       <c r="R4">
-        <v>151.606144964681</v>
+        <v>9.409629527518</v>
       </c>
       <c r="S4">
-        <v>0.0234489298771245</v>
+        <v>0.7357149001273036</v>
       </c>
       <c r="T4">
-        <v>0.02344892987712451</v>
+        <v>0.7357149001273036</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>6.413473</v>
       </c>
       <c r="I5">
-        <v>0.02350257970069449</v>
+        <v>0.7628354881578912</v>
       </c>
       <c r="J5">
-        <v>0.02350257970069449</v>
+        <v>0.7628354881578912</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,10 +744,10 @@
         <v>0.054084</v>
       </c>
       <c r="O5">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="P5">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="Q5">
         <v>0.03854069708133333</v>
@@ -756,10 +756,10 @@
         <v>0.346866273732</v>
       </c>
       <c r="S5">
-        <v>5.364982356998787E-05</v>
+        <v>0.0271205880305876</v>
       </c>
       <c r="T5">
-        <v>5.364982356998787E-05</v>
+        <v>0.0271205880305876</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5062286666666665</v>
+        <v>0.5062286666666667</v>
       </c>
       <c r="H6">
         <v>1.518686</v>
       </c>
       <c r="I6">
-        <v>0.005565321434319426</v>
+        <v>0.180636540633843</v>
       </c>
       <c r="J6">
-        <v>0.005565321434319426</v>
+        <v>0.180636540633843</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.879565666666667</v>
+        <v>0.4890553333333333</v>
       </c>
       <c r="N6">
-        <v>23.638697</v>
+        <v>1.467166</v>
       </c>
       <c r="O6">
-        <v>0.9977172793687663</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="P6">
-        <v>0.9977172793687664</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="Q6">
-        <v>3.988862021349111</v>
+        <v>0.2475738293195555</v>
       </c>
       <c r="R6">
-        <v>35.899758192142</v>
+        <v>2.228164463876</v>
       </c>
       <c r="S6">
-        <v>0.005552617360261858</v>
+        <v>0.1742144885952953</v>
       </c>
       <c r="T6">
-        <v>0.005552617360261859</v>
+        <v>0.1742144885952953</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5062286666666665</v>
+        <v>0.5062286666666667</v>
       </c>
       <c r="H7">
         <v>1.518686</v>
       </c>
       <c r="I7">
-        <v>0.005565321434319426</v>
+        <v>0.180636540633843</v>
       </c>
       <c r="J7">
-        <v>0.005565321434319426</v>
+        <v>0.180636540633843</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,22 +868,22 @@
         <v>0.054084</v>
       </c>
       <c r="O7">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="P7">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="Q7">
-        <v>0.009126290402666664</v>
+        <v>0.009126290402666666</v>
       </c>
       <c r="R7">
-        <v>0.08213661362399999</v>
+        <v>0.082136613624</v>
       </c>
       <c r="S7">
-        <v>1.270407405756765E-05</v>
+        <v>0.00642205203854775</v>
       </c>
       <c r="T7">
-        <v>1.270407405756765E-05</v>
+        <v>0.00642205203854775</v>
       </c>
     </row>
   </sheetData>
